--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -43,129 +43,141 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>small</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -175,63 +187,51 @@
     <t>back</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>product</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -241,100 +241,100 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>nice</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -767,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>73</v>
@@ -817,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>74</v>
@@ -867,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K5">
-        <v>0.85</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K6">
-        <v>0.8494623655913979</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7142857142857143</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.703125</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>78</v>
@@ -1067,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6881720430107527</v>
+        <v>0.6875</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6428571428571429</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K10">
-        <v>0.6792452830188679</v>
+        <v>0.71875</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6283783783783784</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K11">
-        <v>0.5667144906743186</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L11">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>302</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6116504854368932</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C12">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K12">
-        <v>0.5507246376811594</v>
+        <v>0.5624103299856528</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6052631578947368</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K13">
-        <v>0.5103734439834025</v>
+        <v>0.5145228215767634</v>
       </c>
       <c r="L13">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M13">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K14">
-        <v>0.4614754098360656</v>
+        <v>0.4581967213114754</v>
       </c>
       <c r="L14">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M14">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K15">
-        <v>0.3915343915343915</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="L15">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="M15">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>115</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K16">
-        <v>0.3700305810397553</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>206</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,10 +1470,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K17">
-        <v>0.3617021276595745</v>
+        <v>0.35</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1541,13 +1541,13 @@
         <v>88</v>
       </c>
       <c r="K18">
-        <v>0.3333333333333333</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5142857142857142</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K19">
-        <v>0.3313253012048193</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L19">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>111</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4888888888888889</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K20">
-        <v>0.2830188679245283</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4869565217391305</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C21">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K21">
-        <v>0.2711864406779661</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4578313253012048</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,31 +1735,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K22">
-        <v>0.1958041958041958</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1767,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4259259259259259</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1785,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K23">
-        <v>0.1953125</v>
+        <v>0.2109375</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1817,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.421875</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1835,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K24">
-        <v>0.1935483870967742</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1867,13 +1867,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4210526315789473</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1885,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K25">
-        <v>0.1904761904761905</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>102</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1917,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4081632653061225</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K26">
-        <v>0.1887550200803213</v>
+        <v>0.176706827309237</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1967,13 +1967,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4028436018957346</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1985,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K27">
-        <v>0.176</v>
+        <v>0.168</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2017,13 +2017,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3809523809523809</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2035,31 +2035,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K28">
-        <v>0.1724137931034483</v>
+        <v>0.156140350877193</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>962</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2067,13 +2067,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.375</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2085,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K29">
-        <v>0.1428571428571428</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="L29">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>978</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2117,13 +2117,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3720930232558139</v>
+        <v>0.3601895734597156</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2135,31 +2135,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>0.1016042780748663</v>
+        <v>0.07532467532467532</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>336</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2167,13 +2167,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3650793650793651</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2185,31 +2185,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K31">
-        <v>0.07407407407407407</v>
+        <v>0.06963788300835655</v>
       </c>
       <c r="L31">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1425</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2217,13 +2217,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3622047244094488</v>
+        <v>0.3359375</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2235,31 +2235,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K32">
-        <v>0.07262569832402235</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2267,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.35</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="C33">
         <v>21</v>
@@ -2285,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>103</v>
       </c>
       <c r="K33">
-        <v>0.04938271604938271</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2317,13 +2317,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3473684210526316</v>
+        <v>0.3125</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2335,31 +2335,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K34">
-        <v>0.044</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>717</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2367,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2385,31 +2385,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K35">
-        <v>0.03816793893129771</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="L35">
         <v>15</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>378</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2417,13 +2417,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3146067415730337</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2435,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K36">
-        <v>0.02664298401420959</v>
+        <v>0.04005340453938585</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N36">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="O36">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>548</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2467,13 +2467,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2985074626865671</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2485,31 +2485,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K37">
-        <v>0.02564102564102564</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N37">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2517,13 +2517,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2962962962962963</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2543,13 +2543,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2722772277227723</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2569,13 +2569,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2244897959183673</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2595,13 +2595,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2061855670103093</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>154</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2621,13 +2621,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.188034188034188</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>95</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2647,13 +2647,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1666666666666667</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D43">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>230</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2673,13 +2673,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1613924050632911</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C44">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2699,25 +2699,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1613832853025937</v>
+        <v>0.14</v>
       </c>
       <c r="C45">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>291</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2725,13 +2725,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1588785046728972</v>
+        <v>0.1360759493670886</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>180</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2751,13 +2751,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1571428571428571</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2777,13 +2777,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1543026706231454</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C48">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>570</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2803,25 +2803,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1440677966101695</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>101</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2829,13 +2829,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.135</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2855,13 +2855,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.129746835443038</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>275</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2881,13 +2881,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1273885350318471</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>137</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2907,13 +2907,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1235955056179775</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>234</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2933,13 +2933,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1211453744493392</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C54">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>399</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2959,13 +2959,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1048387096774194</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>222</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2985,25 +2985,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09714285714285714</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C56">
         <v>17</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3011,25 +3011,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09574468085106383</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3037,13 +3037,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09289617486338798</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>166</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3063,13 +3063,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07042253521126761</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>330</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3089,25 +3089,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06919642857142858</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C60">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>417</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3115,7 +3115,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.06575342465753424</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C61">
         <v>24</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3141,13 +3141,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.05766062602965404</v>
+        <v>0.05930807248764415</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E62">
         <v>0.03</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3167,13 +3167,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05379746835443038</v>
+        <v>0.04746835443037975</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>0.06</v>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3193,25 +3193,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04128440366972477</v>
+        <v>0.04418604651162791</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="F64">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>627</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3219,25 +3219,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03990610328638498</v>
+        <v>0.0432020330368488</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E65">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="F65">
-        <v>0.6799999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>409</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3245,25 +3245,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03422053231939164</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F66">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>762</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
